--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/152.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/152.xlsx
@@ -479,13 +479,13 @@
         <v>-1.771361457434808</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.731431774856999</v>
+        <v>-5.193567684393351</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.594468964797159</v>
+        <v>-2.477787926911367</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.076505485847505</v>
+        <v>-2.181743894099066</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-1.686831124583262</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.491383891257125</v>
+        <v>-5.977686161736638</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.434163318637884</v>
+        <v>-2.283122340491414</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.523720146426033</v>
+        <v>-1.436087233777799</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-1.554032285149456</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.024344307833257</v>
+        <v>-6.503107729723987</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.830774222702626</v>
+        <v>-2.756715546682598</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.527338011507549</v>
+        <v>-1.52939392983287</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-1.376689001879723</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.739635346504116</v>
+        <v>-7.258718408026293</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.284965496080241</v>
+        <v>-2.091155485861999</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.531163750318693</v>
+        <v>-0.3220194610001554</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-1.159026236378917</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.006509028907185</v>
+        <v>-8.692194777433222</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.957575504802932</v>
+        <v>-2.938351929802222</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.7144355971730838</v>
+        <v>0.58979987570695</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.9068501302549354</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.05669703796172</v>
+        <v>-9.796670318737979</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.916395399962907</v>
+        <v>-2.898956312468622</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3561153948900203</v>
+        <v>0.9510730381376301</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.6264587846990571</v>
       </c>
       <c r="E8" t="n">
-        <v>-10.64250272976233</v>
+        <v>-10.41346742506797</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.086229720505799</v>
+        <v>-3.094027686458528</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1824282675281289</v>
+        <v>1.52100901364824</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3252207651256523</v>
       </c>
       <c r="E9" t="n">
-        <v>-11.38476641931796</v>
+        <v>-11.21767483162741</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.919328804083056</v>
+        <v>-2.939442178333544</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6832239079268277</v>
+        <v>1.993311522026559</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.01058953455905551</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.76803033463603</v>
+        <v>-11.56367473660585</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.94927397114291</v>
+        <v>-2.960572466012351</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4035776041461597</v>
+        <v>1.617513120194274</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3121544560212755</v>
       </c>
       <c r="E11" t="n">
-        <v>-12.52649619294861</v>
+        <v>-12.3392130068977</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.068849301093916</v>
+        <v>-3.111672112241224</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9507259186500792</v>
+        <v>2.173989659800267</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.6384100099159119</v>
       </c>
       <c r="E12" t="n">
-        <v>-13.47303236741768</v>
+        <v>-13.35625843840142</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.908015642193015</v>
+        <v>-2.957018158020103</v>
       </c>
       <c r="G12" t="n">
-        <v>1.353389413216061</v>
+        <v>2.504510969038053</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.9649356605311644</v>
       </c>
       <c r="E13" t="n">
-        <v>-14.32921969498616</v>
+        <v>-14.2270590074951</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.142893310093343</v>
+        <v>-3.276690761020205</v>
       </c>
       <c r="G13" t="n">
-        <v>1.811176460206509</v>
+        <v>2.864532545710802</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>1.288005811291265</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.805286738652</v>
+        <v>-14.6241637012534</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.133648198108007</v>
+        <v>-3.251580821751729</v>
       </c>
       <c r="G14" t="n">
-        <v>2.584685792648591</v>
+        <v>3.754028677063574</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.605407604000924</v>
       </c>
       <c r="E15" t="n">
-        <v>-15.67022049950539</v>
+        <v>-15.50646321449808</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.850271582087883</v>
+        <v>-2.971826959819989</v>
       </c>
       <c r="G15" t="n">
-        <v>3.136283103401403</v>
+        <v>4.280965837179667</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.915787278060631</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.78631485656716</v>
+        <v>-15.47589225455926</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.650443204416468</v>
+        <v>-2.797636534158676</v>
       </c>
       <c r="G16" t="n">
-        <v>3.410282604250785</v>
+        <v>4.547465601495201</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>2.21930750229602</v>
       </c>
       <c r="E17" t="n">
-        <v>-17.04510701061922</v>
+        <v>-16.79037997483921</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.388646664706906</v>
+        <v>-2.547294937538296</v>
       </c>
       <c r="G17" t="n">
-        <v>3.886237200758688</v>
+        <v>5.048931035834667</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>2.516337394393994</v>
       </c>
       <c r="E18" t="n">
-        <v>-17.99054315854323</v>
+        <v>-17.71279378942692</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.313135953647405</v>
+        <v>-2.498639541198759</v>
       </c>
       <c r="G18" t="n">
-        <v>3.943071905586575</v>
+        <v>5.104103478327803</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.810138210721572</v>
       </c>
       <c r="E19" t="n">
-        <v>-18.68327631953014</v>
+        <v>-18.37610979609561</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.575932386199034</v>
+        <v>-1.712355233813428</v>
       </c>
       <c r="G19" t="n">
-        <v>4.150556468011578</v>
+        <v>5.305056327578608</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3.104443217703275</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.50399879128602</v>
+        <v>-19.19827452487723</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.331090922303933</v>
+        <v>-1.467895112453947</v>
       </c>
       <c r="G20" t="n">
-        <v>3.828825593120506</v>
+        <v>4.965016121970939</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>3.401648403981305</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.4160136882678</v>
+        <v>-20.20477436856901</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6650615168241097</v>
+        <v>-0.7614629542259387</v>
       </c>
       <c r="G21" t="n">
-        <v>3.322676490202535</v>
+        <v>4.410734746448191</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>3.701903632095245</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.34211870304003</v>
+        <v>-21.22738837889414</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1315779765132175</v>
+        <v>-0.1937123647848396</v>
       </c>
       <c r="G22" t="n">
-        <v>2.683585512559413</v>
+        <v>3.699247355119792</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>4.002842004107097</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.05383352412553</v>
+        <v>-20.75303248763172</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3603001153602285</v>
+        <v>0.3673060622005176</v>
       </c>
       <c r="G23" t="n">
-        <v>2.40672105368602</v>
+        <v>3.371331886542073</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>4.299087273418917</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.56324848363059</v>
+        <v>-21.29979457059315</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8961157119466392</v>
+        <v>1.005042784941504</v>
       </c>
       <c r="G24" t="n">
-        <v>1.58527011990697</v>
+        <v>2.429787388084125</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>4.582641967255023</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.08065208035621</v>
+        <v>-21.84412192813486</v>
       </c>
       <c r="F25" t="n">
-        <v>1.447610353555246</v>
+        <v>1.624074167409674</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8141026217541409</v>
+        <v>1.568671941593794</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>4.843610796781427</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.42018871825658</v>
+        <v>-22.27007665141483</v>
       </c>
       <c r="F26" t="n">
-        <v>1.546387848294396</v>
+        <v>1.696695475410829</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1364520469516607</v>
+        <v>0.8357462551539734</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5.071501995334826</v>
       </c>
       <c r="E27" t="n">
-        <v>-23.02851806469307</v>
+        <v>-22.97451409484113</v>
       </c>
       <c r="F27" t="n">
-        <v>1.752630602975203</v>
+        <v>1.927246372233937</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.6057480855146976</v>
+        <v>-0.0634545548296246</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>5.259666834612011</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.80282684069568</v>
+        <v>-22.71116773995476</v>
       </c>
       <c r="F28" t="n">
-        <v>1.850312960176163</v>
+        <v>2.080477625456785</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.371175889605769</v>
+        <v>-0.9666399054097583</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>5.402691240730779</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.73389673287905</v>
+        <v>-22.65972072069421</v>
       </c>
       <c r="F29" t="n">
-        <v>1.618926043178813</v>
+        <v>1.803104709869233</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.965649790581425</v>
+        <v>-1.675673015290966</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>5.498308377846882</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.50650413449197</v>
+        <v>-22.42851469695094</v>
       </c>
       <c r="F30" t="n">
-        <v>1.441195976545854</v>
+        <v>1.582634945205703</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.334165925747656</v>
+        <v>-3.265900722864923</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>5.54954643696839</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.48414670608956</v>
+        <v>-22.46158882840562</v>
       </c>
       <c r="F31" t="n">
-        <v>1.54541493592788</v>
+        <v>1.744539296610458</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.568706252174167</v>
+        <v>-3.497879209693171</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>5.562237344725522</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.3016743027957</v>
+        <v>-22.2662387810243</v>
       </c>
       <c r="F32" t="n">
-        <v>1.563250032978385</v>
+        <v>1.72770644596767</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.519794092036333</v>
+        <v>-4.575660773504571</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>5.545107848416467</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.95901358950736</v>
+        <v>-21.91544276030941</v>
       </c>
       <c r="F33" t="n">
-        <v>1.118369964116593</v>
+        <v>1.189622350195011</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.694111631876186</v>
+        <v>-4.76979345817603</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>5.508808598663115</v>
       </c>
       <c r="E34" t="n">
-        <v>-21.63126923616998</v>
+        <v>-21.6099287211959</v>
       </c>
       <c r="F34" t="n">
-        <v>1.262478330525778</v>
+        <v>1.391474776709329</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.740043851390852</v>
+        <v>-4.719676248783284</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>5.462713810554077</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.11005710309505</v>
+        <v>-21.05738294311091</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7528726997528982</v>
+        <v>0.7937643531877747</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.783697793705536</v>
+        <v>-4.834519020087116</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>5.418884377273462</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.63432740090302</v>
+        <v>-20.58896230618492</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5263552335949947</v>
+        <v>0.5499006906660572</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.164522094597008</v>
+        <v>-5.236018931018773</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>5.386783618725156</v>
       </c>
       <c r="E37" t="n">
-        <v>-20.29667791965327</v>
+        <v>-20.25431467515146</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6257682992268433</v>
+        <v>0.6458327834086622</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.453127594399081</v>
+        <v>-4.418454757698921</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>5.371829126193813</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.94221514378821</v>
+        <v>-19.88142523240499</v>
       </c>
       <c r="F38" t="n">
-        <v>0.05659011978060503</v>
+        <v>0.04151242260303933</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.141952085333679</v>
+        <v>-4.097232339522008</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>5.378582353504847</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.6945967239927</v>
+        <v>-19.73518525900183</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1594453156546327</v>
+        <v>-0.2671012468640999</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.256413514101892</v>
+        <v>-4.141692967969733</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>5.407698036354218</v>
       </c>
       <c r="E40" t="n">
-        <v>-18.83608711816243</v>
+        <v>-18.77659768260581</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6891496536573997</v>
+        <v>-0.8869148704309763</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.556317508773405</v>
+        <v>-3.35916830686506</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>5.456302359207899</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.20245227218279</v>
+        <v>-18.18408427338379</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.165534482769592</v>
+        <v>-1.465181713642809</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.347967592132957</v>
+        <v>-3.049801730340415</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>5.519059145953859</v>
       </c>
       <c r="E42" t="n">
-        <v>-17.49974553718737</v>
+        <v>-17.47105684489231</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.559808441551948</v>
+        <v>-1.898377056092675</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.517824004144533</v>
+        <v>-2.06132765496695</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>5.588061215877454</v>
       </c>
       <c r="E43" t="n">
-        <v>-16.96768469787475</v>
+        <v>-16.90132131866325</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.554572315197482</v>
+        <v>-1.909074203117485</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.982829760711764</v>
+        <v>-1.528259680239746</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>5.655842756991318</v>
       </c>
       <c r="E44" t="n">
-        <v>-16.41645895164382</v>
+        <v>-16.3595998017816</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.655716089260219</v>
+        <v>-1.980908381013067</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.870397269793321</v>
+        <v>-1.37231502820576</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>5.716634404148344</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.42904814432613</v>
+        <v>-16.52543491470736</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.941067864054577</v>
+        <v>-2.347574118017954</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.828860267452012</v>
+        <v>-1.344164126666064</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>5.764217047613355</v>
       </c>
       <c r="E46" t="n">
-        <v>-15.33162743993033</v>
+        <v>-15.33480040538696</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.026112138504562</v>
+        <v>-2.422815933699775</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.351668752206778</v>
+        <v>-0.7871497963047098</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>5.794140315012392</v>
       </c>
       <c r="E47" t="n">
-        <v>-14.90622028541946</v>
+        <v>-14.96310388031602</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.409244050637219</v>
+        <v>-2.853600995764252</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.245719084393864</v>
+        <v>-0.6150274205481021</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>5.804344775610793</v>
       </c>
       <c r="E48" t="n">
-        <v>-14.13416298801685</v>
+        <v>-14.14199028801078</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.407787126590878</v>
+        <v>-2.870438735413907</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.8860201821743308</v>
+        <v>-0.1985378145624846</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>5.792508730242538</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.19106613894088</v>
+        <v>-14.29355438989201</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.794923135347538</v>
+        <v>-3.303008284984807</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.8473676938845012</v>
+        <v>-0.1605746762408901</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>5.756955098874756</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.5364965655571</v>
+        <v>-13.61292152090072</v>
       </c>
       <c r="F50" t="n">
-        <v>-3.199620456770157</v>
+        <v>-3.762526040406144</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.7358250022158367</v>
+        <v>0.04357558350087744</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>5.696573825215489</v>
       </c>
       <c r="E51" t="n">
-        <v>-12.91405265629582</v>
+        <v>-12.9149131215044</v>
       </c>
       <c r="F51" t="n">
-        <v>-3.113319707555374</v>
+        <v>-3.648895742805306</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.707238979064985</v>
+        <v>0.1374787383937129</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>5.609736070052096</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.5000173317574</v>
+        <v>-12.48929085069139</v>
       </c>
       <c r="F52" t="n">
-        <v>-3.243890413950072</v>
+        <v>-3.788809341322678</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.6281446259720349</v>
+        <v>0.2592101203730282</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>5.497277850838934</v>
       </c>
       <c r="E53" t="n">
-        <v>-11.88229131412269</v>
+        <v>-11.82605306813257</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.506606086950613</v>
+        <v>-4.153705257841742</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.970042654189131</v>
+        <v>-0.14022662966079</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>5.359086875742412</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.13861959058939</v>
+        <v>-10.93662049386907</v>
       </c>
       <c r="F54" t="n">
-        <v>-3.637470133757326</v>
+        <v>-4.275143299409042</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.8076787361388856</v>
+        <v>0.06366451271703097</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>5.193334802132747</v>
       </c>
       <c r="E55" t="n">
-        <v>-10.51200535847064</v>
+        <v>-10.34770050469423</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.81569887909071</v>
+        <v>-4.497099322160114</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.5362557419083684</v>
+        <v>0.456041536835024</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>5.001896992888986</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.968435796993303</v>
+        <v>-9.734780380809703</v>
       </c>
       <c r="F56" t="n">
-        <v>-3.916319529418687</v>
+        <v>-4.580676894550026</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1089760977674697</v>
+        <v>0.9741393725357348</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>4.785179856346074</v>
       </c>
       <c r="E57" t="n">
-        <v>-9.474504322235752</v>
+        <v>-9.217014997575943</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.660873809629248</v>
+        <v>-4.270586745009078</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2816900433549741</v>
+        <v>0.7591844076180854</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>4.543858127634682</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.08464513665422</v>
+        <v>-8.78795086592862</v>
       </c>
       <c r="F58" t="n">
-        <v>-3.838310535850192</v>
+        <v>-4.479127332917335</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2094402998757049</v>
+        <v>0.9083822301757288</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>4.27908451832069</v>
       </c>
       <c r="E59" t="n">
-        <v>-8.362973944022038</v>
+        <v>-7.996909554861781</v>
       </c>
       <c r="F59" t="n">
-        <v>-4.050410320757563</v>
+        <v>-4.704050982836624</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2812989228056209</v>
+        <v>0.8229272791489224</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>3.992634014064495</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.359991649833219</v>
+        <v>-8.010368990766398</v>
       </c>
       <c r="F60" t="n">
-        <v>-4.37918625454386</v>
+        <v>-5.093387044683396</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2822962802064715</v>
+        <v>0.8060895394992673</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>3.687134591261628</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.271417512425321</v>
+        <v>-7.955665892932486</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.359591115021265</v>
+        <v>-5.075674172804563</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2967628515256728</v>
+        <v>0.8093358400588988</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>3.365687666644555</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.84144891450762</v>
+        <v>-7.514237462918736</v>
       </c>
       <c r="F62" t="n">
-        <v>-4.396019105186648</v>
+        <v>-5.122789531981023</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.07627841984154252</v>
+        <v>1.095719195302176</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>3.03091936435592</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.736320599848347</v>
+        <v>-7.461812642284807</v>
       </c>
       <c r="F63" t="n">
-        <v>-4.487257751337014</v>
+        <v>-5.195528176146984</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3158202002929073</v>
+        <v>0.7769755036067888</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>2.687330412797246</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.359065273969722</v>
+        <v>-6.994995599611166</v>
       </c>
       <c r="F64" t="n">
-        <v>-4.903190010539804</v>
+        <v>-5.690505898374053</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1701815747343779</v>
+        <v>0.9574287470646196</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>2.34050982842949</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.397918211541096</v>
+        <v>-7.120867970406759</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.729043585940294</v>
+        <v>-5.485700511712119</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.05292363403828981</v>
+        <v>1.058533409072421</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.995528291305801</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.212473292072144</v>
+        <v>-6.895641202061721</v>
       </c>
       <c r="F66" t="n">
-        <v>-4.767696074230123</v>
+        <v>-5.539039576630161</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5485564831855265</v>
+        <v>0.4972265306819155</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>1.657450064136135</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.961515680586533</v>
+        <v>-6.585560830534507</v>
       </c>
       <c r="F67" t="n">
-        <v>-5.00780497947805</v>
+        <v>-5.816955171979941</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6056454163704923</v>
+        <v>0.4271670622790243</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>1.331219736394959</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.122838240174126</v>
+        <v>-6.789383526816192</v>
       </c>
       <c r="F68" t="n">
-        <v>-5.056655936092264</v>
+        <v>-5.877143735518532</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6790734105046879</v>
+        <v>0.2761945302286907</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>1.021004653004904</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.183207696966791</v>
+        <v>-6.882450661534785</v>
       </c>
       <c r="F69" t="n">
-        <v>-4.847914898902464</v>
+        <v>-5.587470078653821</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2745765383636128</v>
+        <v>0.72810010195824</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.7302891851446505</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.170794508531694</v>
+        <v>-6.899630631665124</v>
       </c>
       <c r="F70" t="n">
-        <v>-4.774286455486724</v>
+        <v>-5.504743193458753</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.509957773971233</v>
+        <v>0.451211198050512</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.4624168023718043</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.240061957822145</v>
+        <v>-6.943538802336887</v>
       </c>
       <c r="F71" t="n">
-        <v>-5.086102424451693</v>
+        <v>-5.835200945607268</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3076408918045586</v>
+        <v>0.6701995936333663</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2200520150177338</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.485915446138697</v>
+        <v>-7.215597367460103</v>
       </c>
       <c r="F72" t="n">
-        <v>-5.117440958468618</v>
+        <v>-5.877143735518532</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.537375324480892</v>
+        <v>0.3624072773198689</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.008223285363818732</v>
       </c>
       <c r="E73" t="n">
-        <v>-7.659113403406026</v>
+        <v>-7.440486794331323</v>
       </c>
       <c r="F73" t="n">
-        <v>-5.225439120158769</v>
+        <v>-6.00825223266859</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4807215129070816</v>
+        <v>0.4376344259810891</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1696099395583939</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.650190965873906</v>
+        <v>-7.362023123124206</v>
       </c>
       <c r="F74" t="n">
-        <v>-5.309525149262839</v>
+        <v>-6.094117860272217</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1794413537403148</v>
+        <v>0.7069013681832969</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3104153400223796</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.208867558570011</v>
+        <v>-7.947814147904221</v>
       </c>
       <c r="F75" t="n">
-        <v>-5.552161671060961</v>
+        <v>-6.334461437849756</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.1467681208487222</v>
+        <v>0.7419213243710087</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4116042523547113</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.603019292180695</v>
+        <v>-8.425807460275628</v>
       </c>
       <c r="F76" t="n">
-        <v>-5.614384061456188</v>
+        <v>-6.399661233426934</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.03950331018860827</v>
+        <v>0.8462233968697721</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4717982043224128</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.187392504969305</v>
+        <v>-9.032802107837455</v>
       </c>
       <c r="F77" t="n">
-        <v>-5.427183988522014</v>
+        <v>-6.147632929437468</v>
       </c>
       <c r="G77" t="n">
-        <v>0.1901137863229192</v>
+        <v>1.084689595810416</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4905524048930418</v>
       </c>
       <c r="E78" t="n">
-        <v>-10.13442246913193</v>
+        <v>-10.13400690354824</v>
       </c>
       <c r="F78" t="n">
-        <v>-6.003060107375926</v>
+        <v>-6.872041965915122</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5201266388465451</v>
+        <v>1.46456054036284</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4687787157333284</v>
       </c>
       <c r="E79" t="n">
-        <v>-11.06286931819341</v>
+        <v>-11.06938636434701</v>
       </c>
       <c r="F79" t="n">
-        <v>-6.187732563759904</v>
+        <v>-7.069098276692997</v>
       </c>
       <c r="G79" t="n">
-        <v>0.8566614265306356</v>
+        <v>1.791767102944857</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4086465709262628</v>
       </c>
       <c r="E80" t="n">
-        <v>-11.85935209390313</v>
+        <v>-11.94125762594456</v>
       </c>
       <c r="F80" t="n">
-        <v>-6.276336035209004</v>
+        <v>-7.166272177179798</v>
       </c>
       <c r="G80" t="n">
-        <v>1.133780113761109</v>
+        <v>2.104619541365611</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3130205079811221</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.04908702596001</v>
+        <v>-13.23260078771654</v>
       </c>
       <c r="F81" t="n">
-        <v>-6.008834024485752</v>
+        <v>-6.857272276170173</v>
       </c>
       <c r="G81" t="n">
-        <v>1.374729928190145</v>
+        <v>2.333733070169846</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1856116444491152</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.92105117868803</v>
+        <v>-14.14197073198332</v>
       </c>
       <c r="F82" t="n">
-        <v>-6.118743787860867</v>
+        <v>-6.957795146360811</v>
       </c>
       <c r="G82" t="n">
-        <v>1.379907386462208</v>
+        <v>2.349333891082172</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.03054227350737852</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.81609144382788</v>
+        <v>-15.05725637455906</v>
       </c>
       <c r="F83" t="n">
-        <v>-6.523573112468893</v>
+        <v>-7.441249479402562</v>
       </c>
       <c r="G83" t="n">
-        <v>1.400651442598528</v>
+        <v>2.33780072388312</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1478411284628218</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.58444522759102</v>
+        <v>-16.95661109732119</v>
       </c>
       <c r="F84" t="n">
-        <v>-6.406779627425162</v>
+        <v>-7.308850284439639</v>
       </c>
       <c r="G84" t="n">
-        <v>1.246662393311308</v>
+        <v>2.108560080900345</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3450801438947377</v>
       </c>
       <c r="E85" t="n">
-        <v>-17.89385815874312</v>
+        <v>-18.3437201256023</v>
       </c>
       <c r="F85" t="n">
-        <v>-6.223412535874649</v>
+        <v>-7.090336122522875</v>
       </c>
       <c r="G85" t="n">
-        <v>1.442119998843701</v>
+        <v>2.320801647006856</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.5571573289050906</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.51006604880786</v>
+        <v>-20.03611829868104</v>
       </c>
       <c r="F86" t="n">
-        <v>-5.937346966077722</v>
+        <v>-6.753067983808747</v>
       </c>
       <c r="G86" t="n">
-        <v>1.252426532407401</v>
+        <v>2.05156403884585</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.7816489974857272</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.84750276732111</v>
+        <v>-21.39167367664308</v>
       </c>
       <c r="F87" t="n">
-        <v>-6.015707968140635</v>
+        <v>-6.805018570776586</v>
       </c>
       <c r="G87" t="n">
-        <v>0.9565731708629094</v>
+        <v>1.685641430884734</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>1.016349402048976</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.33224526273451</v>
+        <v>-22.90933874429829</v>
       </c>
       <c r="F88" t="n">
-        <v>-5.991038039490182</v>
+        <v>-6.780060190720985</v>
       </c>
       <c r="G88" t="n">
-        <v>0.4622701315834736</v>
+        <v>1.16052787033</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>1.259506066205523</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.14222405096256</v>
+        <v>-24.81771857373674</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.920646118620341</v>
+        <v>-6.707345991589359</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01929677539977781</v>
+        <v>0.571695883278764</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>1.509293000237415</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.64536876822303</v>
+        <v>-26.27523418990829</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.650944054806978</v>
+        <v>-6.394806449608087</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.3591856912024429</v>
+        <v>0.1349315658160502</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>1.763959823916553</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.35001879251027</v>
+        <v>-28.01516817675405</v>
       </c>
       <c r="F91" t="n">
-        <v>-5.096926685655043</v>
+        <v>-5.727823687789215</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.623539181503401</v>
+        <v>-0.18282454649222</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>2.021449979179745</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.05610129580951</v>
+        <v>-29.67701250141801</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.571862015168977</v>
+        <v>-5.063212094300797</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.111046501237825</v>
+        <v>-0.7470501619822734</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>2.279141288252796</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.95099968881244</v>
+        <v>-31.57681701281189</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.302609739987371</v>
+        <v>-4.763584419455047</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.847873615157444</v>
+        <v>-1.564355217938179</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>2.532321690578796</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.74682969116764</v>
+        <v>-33.31352181062205</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.526452919389071</v>
+        <v>-4.988033835708246</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.031573159174906</v>
+        <v>-1.743664433789152</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>2.77870037530069</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.08381653011135</v>
+        <v>-35.67064402434715</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.923257030162839</v>
+        <v>-4.235957909370719</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.563956672940742</v>
+        <v>-2.329035003978612</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>3.014118746626697</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.00580735466729</v>
+        <v>-37.56414905039301</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.526504344898957</v>
+        <v>-3.728831005079366</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.235828441626529</v>
+        <v>-3.117915374010274</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>3.234082252812456</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.97181390804607</v>
+        <v>-39.50129579623638</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.462629470182714</v>
+        <v>-3.637856365299812</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.884721878037816</v>
+        <v>-3.829974779142102</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>3.433807819727095</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.19468643770912</v>
+        <v>-41.75373459492711</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.377658530835732</v>
+        <v>-3.473351062241858</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.031465419148268</v>
+        <v>-3.958937002277584</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>3.609036269055817</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.01848155934307</v>
+        <v>-43.5048424069672</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.898995424523557</v>
+        <v>-2.875968202180387</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.19492936374357</v>
+        <v>-4.161464111739536</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>3.754881736249133</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.28646006636028</v>
+        <v>-45.75518382171202</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.886210671566575</v>
+        <v>-2.838005063858793</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.874183532798398</v>
+        <v>-4.910675080053051</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>3.868330208638437</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.25924156100488</v>
+        <v>-47.68350346565718</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.502311185355812</v>
+        <v>-2.38307808588549</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.186307509195982</v>
+        <v>-5.231437931584473</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>3.943811629550322</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.98918599363203</v>
+        <v>-50.48190621693831</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.062325012367801</v>
+        <v>-1.816324853845242</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.399228647256995</v>
+        <v>-5.464135102422158</v>
       </c>
     </row>
   </sheetData>
